--- a/absensi.xlsx
+++ b/absensi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11235" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -412,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -454,17 +454,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-14 17:25:38</t>
+          <t>2025-11-10 20:37:53</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mulut terbuka</t>
+          <t>Senyum</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Rock</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.1</t>
         </is>
       </c>
     </row>
@@ -476,7 +481,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-10-14 17:28:48</t>
+          <t>2025-11-10 20:41:24</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -486,7 +491,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Thumbs Up</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.4</t>
         </is>
       </c>
     </row>
@@ -498,22 +508,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-10-14 17:36:46</t>
+          <t>2025-11-10 20:59:30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kedip</t>
+          <t>Senyum</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mulut terbuka</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Peace</t>
+          <t>56.9</t>
         </is>
       </c>
     </row>
@@ -525,17 +535,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-10-14 18:42:24</t>
+          <t>2025-11-10 21:00:55</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mulut terbuka</t>
+          <t>Senyum</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Peace</t>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.3</t>
         </is>
       </c>
     </row>
@@ -547,7 +562,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-14 18:52:11</t>
+          <t>2025-11-10 21:03:53</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -557,7 +572,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rock</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.8</t>
         </is>
       </c>
     </row>
@@ -569,7 +589,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-10-14 18:57:09</t>
+          <t>2025-11-10 21:08:05</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -579,7 +599,93 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Thumbs Up</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Reevan</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-11-10 21:13:15</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mulut terbuka</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Peace</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Reevan</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-11-10 21:16:42</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mulut terbuka</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Reevan</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-11-10 21:41:55</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Senyum</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Peace</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.8</t>
         </is>
       </c>
     </row>
